--- a/Mapping/Traceability Procedure to Tests.xlsx
+++ b/Mapping/Traceability Procedure to Tests.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\THFP2\user\Simon.Crowther\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Work\Programming\Ada\System Checks\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proecdure to Code" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Authors">'[1]Test to code'!#REF!</definedName>
     <definedName name="Options">'[1]Test to code'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="130">
   <si>
     <t>Package</t>
   </si>
@@ -40,36 +40,6 @@
     <t>Procedure</t>
   </si>
   <si>
-    <t>Drafted</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t>Written</t>
-  </si>
-  <si>
-    <t>Reviewed</t>
-  </si>
-  <si>
-    <t>Reworked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work Version </t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Test Drafted</t>
-  </si>
-  <si>
-    <t>Test Reviewed</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
     <t>Code_Name</t>
   </si>
   <si>
@@ -79,12 +49,6 @@
     <t>Procedure_1</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>RD999</t>
-  </si>
-  <si>
     <t>Test ID</t>
   </si>
   <si>
@@ -92,13 +56,379 @@
   </si>
   <si>
     <t>First_Phase</t>
+  </si>
+  <si>
+    <t>Sub-Package</t>
+  </si>
+  <si>
+    <t>IPT</t>
+  </si>
+  <si>
+    <t>Non_Tests</t>
+  </si>
+  <si>
+    <t>Initialise</t>
+  </si>
+  <si>
+    <t>Schedule_Phase</t>
+  </si>
+  <si>
+    <t>Pri_Lock_Interface</t>
+  </si>
+  <si>
+    <t>Release_Operational_Test</t>
+  </si>
+  <si>
+    <t>Airside_Interface_Failure</t>
+  </si>
+  <si>
+    <t>Seal_Lock_Failure</t>
+  </si>
+  <si>
+    <t>Sec_Lock_Interface</t>
+  </si>
+  <si>
+    <t>Launch_Latch_Check</t>
+  </si>
+  <si>
+    <t>Check_Arming_Key_Lock</t>
+  </si>
+  <si>
+    <t>Clamp_Rings_Check</t>
+  </si>
+  <si>
+    <t>Lock_Check</t>
+  </si>
+  <si>
+    <t>Hangor_Door_Start</t>
+  </si>
+  <si>
+    <t>Warhead</t>
+  </si>
+  <si>
+    <t>Fuse_Check</t>
+  </si>
+  <si>
+    <t>Warhead_Pressure_Seal_Check</t>
+  </si>
+  <si>
+    <t>SA_Device_Test</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>Active_Target_Window_Test</t>
+  </si>
+  <si>
+    <t>Comms_Integrity_Test</t>
+  </si>
+  <si>
+    <t>HP1_Interface_Test</t>
+  </si>
+  <si>
+    <t>HB1_Interface_Test</t>
+  </si>
+  <si>
+    <t>Serial_Link_Check</t>
+  </si>
+  <si>
+    <t>SPT</t>
+  </si>
+  <si>
+    <t>Radar</t>
+  </si>
+  <si>
+    <t>Magnetron_Test</t>
+  </si>
+  <si>
+    <t>Ping_Test</t>
+  </si>
+  <si>
+    <t>Duplexer_Switch_Test</t>
+  </si>
+  <si>
+    <t>Automatic_Detection_Simulate</t>
+  </si>
+  <si>
+    <t>Radar_Beam_Placement_Test</t>
+  </si>
+  <si>
+    <t>Sensor Interface</t>
+  </si>
+  <si>
+    <t>Sound_Speed</t>
+  </si>
+  <si>
+    <t>Temperature_Range</t>
+  </si>
+  <si>
+    <t>Sensor_Direction</t>
+  </si>
+  <si>
+    <t>Pressure_Readings_Check</t>
+  </si>
+  <si>
+    <t>Stress_Readings_Check</t>
+  </si>
+  <si>
+    <t>Noise_Cancellation</t>
+  </si>
+  <si>
+    <t>Smart_Calibration_Module</t>
+  </si>
+  <si>
+    <t>Geometrical</t>
+  </si>
+  <si>
+    <t>Fuel_Metering_Valve_Minor_Loop</t>
+  </si>
+  <si>
+    <t>Derived_Models</t>
+  </si>
+  <si>
+    <t>Starting_Models</t>
+  </si>
+  <si>
+    <t>Control_Laws</t>
+  </si>
+  <si>
+    <t>HP1 Bus Interface</t>
+  </si>
+  <si>
+    <t>Input_Payloads</t>
+  </si>
+  <si>
+    <t>Fpga_Version</t>
+  </si>
+  <si>
+    <t>Output_Payloads</t>
+  </si>
+  <si>
+    <t>Autopilot</t>
+  </si>
+  <si>
+    <t>Course_Gyro</t>
+  </si>
+  <si>
+    <t>Command_Check</t>
+  </si>
+  <si>
+    <t>AP_Simulation_Runthrough</t>
+  </si>
+  <si>
+    <t>LPT</t>
+  </si>
+  <si>
+    <t>Initiation</t>
+  </si>
+  <si>
+    <t>Heat_Management</t>
+  </si>
+  <si>
+    <t>HP_Speed</t>
+  </si>
+  <si>
+    <t>Oil_Measurement</t>
+  </si>
+  <si>
+    <t>Propulsion_System_Run</t>
+  </si>
+  <si>
+    <t>Initial_Propulsion_Switch</t>
+  </si>
+  <si>
+    <t>Pressure_Intake</t>
+  </si>
+  <si>
+    <t>Pressure_Output</t>
+  </si>
+  <si>
+    <t>AP_Switchover</t>
+  </si>
+  <si>
+    <t>AP_False_Reset</t>
+  </si>
+  <si>
+    <t>Watchdog</t>
+  </si>
+  <si>
+    <t>Watchdog_Simulation</t>
+  </si>
+  <si>
+    <t>Integrity</t>
+  </si>
+  <si>
+    <t>Combustion_Chamber_Lock</t>
+  </si>
+  <si>
+    <t>Exhaust_Nozzle_Reading</t>
+  </si>
+  <si>
+    <t>Diffuser_Integrity</t>
+  </si>
+  <si>
+    <t>FPT</t>
+  </si>
+  <si>
+    <t>Detonation</t>
+  </si>
+  <si>
+    <t>Pressure_Enabler</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Disabler</t>
+  </si>
+  <si>
+    <t>Flight_Drop_Off</t>
+  </si>
+  <si>
+    <t>Disengage_Stage_Check</t>
+  </si>
+  <si>
+    <t>Warhead_Release</t>
+  </si>
+  <si>
+    <t>Warhead_Release_Test</t>
+  </si>
+  <si>
+    <t>Warhead_Seals_Lock</t>
+  </si>
+  <si>
+    <t>Warhead_Chamber</t>
+  </si>
+  <si>
+    <t>Warhead_Arm_Bus_Test</t>
+  </si>
+  <si>
+    <t>General_Checks</t>
+  </si>
+  <si>
+    <t>Faults</t>
+  </si>
+  <si>
+    <t>Map_Area_Local</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_1</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_2</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_3</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_4</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_5</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_6</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_7</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_8</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_9</t>
+  </si>
+  <si>
+    <t>Failure_Round_Up_10</t>
+  </si>
+  <si>
+    <t>NVRAM_Address_Check</t>
+  </si>
+  <si>
+    <t>SRAM_Address_Check</t>
+  </si>
+  <si>
+    <t>Flash_Address_Check</t>
+  </si>
+  <si>
+    <t>SA_Launch_Point_Proximity</t>
+  </si>
+  <si>
+    <t>SA_Launch_Time_Duration</t>
+  </si>
+  <si>
+    <t>Acceleration_Sense</t>
+  </si>
+  <si>
+    <t>Projectile_Rotation_Check</t>
+  </si>
+  <si>
+    <t>SA_Drop_Test</t>
+  </si>
+  <si>
+    <t>Arming_Weapon_Test</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Target_Position_Error</t>
+  </si>
+  <si>
+    <t>Range_Target_Check</t>
+  </si>
+  <si>
+    <t>Logic Power Supply</t>
+  </si>
+  <si>
+    <t>Box_Faults</t>
+  </si>
+  <si>
+    <t>Engine_Events</t>
+  </si>
+  <si>
+    <t>Engine_Operating_MRT</t>
+  </si>
+  <si>
+    <t>Fuel Burn</t>
+  </si>
+  <si>
+    <t>Fire_Control</t>
+  </si>
+  <si>
+    <t>Air_Measurement</t>
+  </si>
+  <si>
+    <t>EEC_Overheat</t>
+  </si>
+  <si>
+    <t>Fuel_System_Control</t>
+  </si>
+  <si>
+    <t>Thrust_Management</t>
+  </si>
+  <si>
+    <t>Ignition_Reset</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Signal_Check_Test</t>
+  </si>
+  <si>
+    <t>Tri_Signal_Check_Test</t>
+  </si>
+  <si>
+    <t>Quad_Signal_Check_Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +439,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -206,30 +529,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,117 +846,1562 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="D2" t="str">
+        <f>(CONCATENATE(LOWER($A2),"-",LOWER($B2),"-",LOWER($C2),".adb"))</f>
+        <v>ipt-non_tests-initialise.adb</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">(CONCATENATE(LOWER($A3),"-",LOWER($B3),"-",LOWER($C3),".adb"))</f>
+        <v>ipt-non_tests-schedule_phase.adb</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-pri_lock_interface-release_operational_test.adb</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-pri_lock_interface-airside_interface_failure.adb</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="O2">
-        <v>1110</v>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-pri_lock_interface-seal_lock_failure.adb</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-sec_lock_interface-launch_latch_check.adb</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-sec_lock_interface-check_arming_key_lock.adb</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-sec_lock_interface-clamp_rings_check.adb</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-sec_lock_interface-lock_check.adb</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-sec_lock_interface-hangor_door_start.adb</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-warhead-fuse_check.adb</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-warhead-warhead_pressure_seal_check.adb</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-warhead-sa_device_test.adb</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-communications-active_target_window_test.adb</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-communications-comms_integrity_test.adb</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-communications-hp1_interface_test.adb</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-communications-hb1_interface_test.adb</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ipt-communications-serial_link_check.adb</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-non_tests-initialise.adb</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-non_tests-schedule_phase.adb</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-radar-magnetron_test.adb</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-radar-ping_test.adb</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-radar-duplexer_switch_test.adb</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-radar-automatic_detection_simulate.adb</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-radar-radar_beam_placement_test.adb</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-sound_speed.adb</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-temperature_range.adb</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-sensor_direction.adb</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-pressure_readings_check.adb</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-stress_readings_check.adb</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-noise_cancellation.adb</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-sensor interface-smart_calibration_module.adb</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-geometrical-fuel_metering_valve_minor_loop.adb</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-geometrical-derived_models.adb</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-geometrical-starting_models.adb</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-geometrical-control_laws.adb</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-hp1 bus interface-input_payloads.adb</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-hp1 bus interface-fpga_version.adb</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-hp1 bus interface-output_payloads.adb</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-autopilot-course_gyro.adb</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-autopilot-command_check.adb</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>spt-autopilot-ap_simulation_runthrough.adb</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-non_tests-initialise.adb</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-non_tests-schedule_phase.adb</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-heat_management.adb</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-hp_speed.adb</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-oil_measurement.adb</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-propulsion_system_run.adb</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-initial_propulsion_switch.adb</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-pressure_intake.adb</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-pressure_output.adb</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-ap_switchover.adb</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-initiation-ap_false_reset.adb</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-watchdog-watchdog_simulation.adb</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-integrity-combustion_chamber_lock.adb</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-integrity-exhaust_nozzle_reading.adb</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>lpt-integrity-diffuser_integrity.adb</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-non_tests-initialise.adb</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-non_tests-schedule_phase.adb</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-detonation-pressure_enabler.adb</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-boost-disabler.adb</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-boost-flight_drop_off.adb</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-boost-disengage_stage_check.adb</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-warhead_release-warhead_release_test.adb</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>fpt-warhead_release-warhead_seals_lock.adb</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D102" si="1">(CONCATENATE(LOWER($A67),"-",LOWER($B67),"-",LOWER($C67),".adb"))</f>
+        <v>fpt-warhead_release-warhead_chamber.adb</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>fpt-warhead_release-warhead_arm_bus_test.adb</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-map_area_local.adb</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_1.adb</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_2.adb</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_3.adb</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_4.adb</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_5.adb</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_6.adb</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_7.adb</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_8.adb</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_9.adb</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-failure_round_up_10.adb</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-nvram_address_check.adb</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-sram_address_check.adb</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-faults-flash_address_check.adb</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-warhead-sa_launch_point_proximity.adb</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-warhead-sa_launch_time_duration.adb</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-warhead-acceleration_sense.adb</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-warhead-projectile_rotation_check.adb</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-warhead-sa_drop_test.adb</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-warhead-arming_weapon_test.adb</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-navigation-target_position_error.adb</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-navigation-range_target_check.adb</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-logic power supply-box_faults.adb</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-logic power supply-engine_events.adb</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-logic power supply-engine_operating_mrt.adb</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-fuel burn-fire_control.adb</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-fuel burn-air_measurement.adb</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-fuel burn-eec_overheat.adb</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-fuel burn-fuel_system_control.adb</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-fuel burn-thrust_management.adb</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-fuel burn-ignition_reset.adb</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-common-signal_check_test.adb</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-common-tri_signal_check_test.adb</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>general_checks-common-quad_signal_check_test.adb</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
-      <formula1>Authors</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J2 C2:G2">
-      <formula1>Options</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -643,17 +2413,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,10 +2431,10 @@
         <v>1111</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Mapping/Traceability Procedure to Tests.xlsx
+++ b/Mapping/Traceability Procedure to Tests.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\Work\Programming\Ada\System Checks\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\THFP2\user\Simon.Crowther\Documents\Git\ADLAS_Ada_System\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Proecdure to Code" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,13 +548,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,11 +843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1673,7 @@
       <c r="A55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -1766,7 +1763,7 @@
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -2398,7 +2395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
